--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2012-至今)/应收账款净额.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2012-至今)/应收账款净额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1826,6 +1826,135 @@
         <v>37.06</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2084.99</v>
+      </c>
+      <c r="C11" t="n">
+        <v>546.7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>77.58</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>709.65</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2480.22</v>
+      </c>
+      <c r="H11" t="n">
+        <v>132.41</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1314.64</v>
+      </c>
+      <c r="J11" t="n">
+        <v>253.32</v>
+      </c>
+      <c r="K11" t="n">
+        <v>51032.69</v>
+      </c>
+      <c r="L11" t="n">
+        <v>246.87</v>
+      </c>
+      <c r="M11" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="N11" t="n">
+        <v>27.91</v>
+      </c>
+      <c r="O11" t="n">
+        <v>467.41</v>
+      </c>
+      <c r="P11" t="n">
+        <v>615.55</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="R11" t="n">
+        <v>88.76000000000001</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1278.07</v>
+      </c>
+      <c r="T11" t="n">
+        <v>148.71</v>
+      </c>
+      <c r="U11" t="n">
+        <v>6516.48</v>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="n">
+        <v>97.06999999999999</v>
+      </c>
+      <c r="X11" t="n">
+        <v>395.8</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1061.76</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>4133.07</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>344.48</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>196.19</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>179.75</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>685.46</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>598.4400000000001</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>17560.93</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>3142.53</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>781.34</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>384.18</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>114.92</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1477.91</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>564.86</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1006.96</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>859.6799999999999</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>368.63</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>42.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
